--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>storyId</t>
   </si>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8001-2001;8001-2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9012;9013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +194,54 @@
   </si>
   <si>
     <t>论功封赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001-2001;8001-2000;8001-2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年正月，关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军。初平二年，韩馥部将麴义反叛，韩馥讨伐不利，袁绍派使者与麴义结交，并领兵到延津，直至邺城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年7月，在袁绍压力之下，韩馥把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。初平二年冬，袁术任命孙坚为豫州刺史，屯兵阳城。在孙坚出兵攻打董卓的时候，袁绍借机会任命周昂为豫州刺史，派兵袭取阳城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年冬，阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州镇压黄巾军的公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年，袁术与袁绍开战，袁术向公孙瓒求援，公孙瓒令刘备屯高唐，单经屯平原，同时联合陶谦，用来威逼袁绍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年3月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。6月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年，朝歌之战中，袁绍接连击灭刘石、青牛角、黄龙、左校、郭大贤、李大目、于氐根等多支黑山部队。之后联手吕布，与张燕等黑山军在常山展开大战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平二年，东郡太守臧洪因怨恨袁绍不出兵救张超，举东郡之兵与之对抗，袁绍兴兵围城一年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年，公孙瓒兼并了刘虞，刘虞旧部鲜于辅等招引乌桓、袁绍共集中十万大军，攻打公孙瓒于鲍丘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安四年，公孙瓒无路可走，然后引火自焚。袁绍灭公孙瓒，兼有幽州、冀州、并州、青州，班师回邺城。诸将封赏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年，袁绍率兵攻公孙瓒，公孙瓒只守不攻。建安四年春，公孙续和黑山军首领张燕带领十万救兵分三路向易京救援。后袁绍设伏，公孙瓒中计，领兵出战。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,10 +285,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,22 +597,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" activeCellId="1" sqref="E19 E19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="71.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,8 +632,11 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -593,16 +647,19 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -610,19 +667,22 @@
         <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -630,19 +690,22 @@
         <v>902</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -650,19 +713,22 @@
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -670,19 +736,22 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -690,19 +759,22 @@
         <v>903</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -710,19 +782,22 @@
         <v>1202</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -730,19 +805,22 @@
         <v>406</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -750,19 +828,22 @@
         <v>402</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -770,7 +851,7 @@
         <v>901</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -779,7 +860,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>storyId</t>
   </si>
@@ -32,10 +32,6 @@
     <t>reward</t>
   </si>
   <si>
-    <t>6001-50;6002-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>talk</t>
   </si>
   <si>
@@ -54,146 +50,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCity</t>
+  </si>
+  <si>
+    <t>targetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邺城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9012;9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界桥之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝歌之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易京之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9016;9017;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年冬，阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州镇压黄巾军的公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年3月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。6月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年，袁绍率兵攻公孙瓒，公孙瓒只守不攻。建安四年春，公孙续和黑山军首领张燕带领十万救兵分三路向易京救援。后袁绍设伏，公孙瓒中计，领兵出战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>talk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容，以;分割。人物ID字符串和文本用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetCity</t>
-  </si>
-  <si>
-    <t>targetCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标城池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邺城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9012;9013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2003;8001-2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9014;9015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界桥之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9016;9017;9018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9016;9017;9019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平原之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9020;9021;2022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝歌之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东郡之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9016;9021;9023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常山之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9016;9017;9024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲍丘之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易京之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9016;9017;9024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论功封赏</t>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,47 +141,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8001-2001;8001-2000;8001-2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年正月，关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军。初平二年，韩馥部将麴义反叛，韩馥讨伐不利，袁绍派使者与麴义结交，并领兵到延津，直至邺城。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年7月，在袁绍压力之下，韩馥把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。初平二年冬，袁术任命孙坚为豫州刺史，屯兵阳城。在孙坚出兵攻打董卓的时候，袁绍借机会任命周昂为豫州刺史，派兵袭取阳城。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年冬，阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州镇压黄巾军的公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平三年，袁术与袁绍开战，袁术向公孙瓒求援，公孙瓒令刘备屯高唐，单经屯平原，同时联合陶谦，用来威逼袁绍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平四年3月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。6月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平四年，朝歌之战中，袁绍接连击灭刘石、青牛角、黄龙、左校、郭大贤、李大目、于氐根等多支黑山部队。之后联手吕布，与张燕等黑山军在常山展开大战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴平二年，东郡太守臧洪因怨恨袁绍不出兵救张超，举东郡之兵与之对抗，袁绍兴兵围城一年。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平四年，公孙瓒兼并了刘虞，刘虞旧部鲜于辅等招引乌桓、袁绍共集中十万大军，攻打公孙瓒于鲍丘。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安四年，公孙瓒无路可走，然后引火自焚。袁绍灭公孙瓒，兼有幽州、冀州、并州、青州，班师回邺城。诸将封赏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安三年，袁绍率兵攻公孙瓒，公孙瓒只守不攻。建安四年春，公孙续和黑山军首领张燕带领十万救兵分三路向易京救援。后袁绍设伏，公孙瓒中计，领兵出战。</t>
+    <t>描述（方便参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1002</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1003</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1005</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1007</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1011</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年（190年）2月,董卓焚洛阳，迁都长安。袁绍等惧怕董卓，不敢进攻。汉献帝初平二年(191年)2月,反董联军解散，袁术表孙坚为豫州刺史，刘备依附公孙瓒为别部司马。4月,董卓入长安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联军解散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年，韩馥部将麴义反叛，韩馥讨伐不利，袁绍派使者与麴义结交，并领兵到延津，直至邺城。初平元年7月，在袁绍压力之下，韩馥把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006;2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9016;9018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002;2003;2004;2005;2006;2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008;2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010;2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9020;9021;9022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012;2013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,261 +610,242 @@
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>901</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1301</v>
+        <v>1201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>902</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1002</v>
+        <v>901</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>102</v>
+        <v>902</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>903</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1202</v>
+        <v>402</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>406</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>402</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>901</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>56</v>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,26 +879,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -924,15 +906,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初平二年冬，阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州镇压黄巾军的公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初平四年3月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。6月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述（方便参考）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>offical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6001-1000;6002-1002</t>
   </si>
   <si>
@@ -187,22 +175,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年（190年）2月,董卓焚洛阳，迁都长安。袁绍等惧怕董卓，不敢进攻。汉献帝初平二年(191年)2月,反董联军解散，袁术表孙坚为豫州刺史，刘备依附公孙瓒为别部司马。4月,董卓入长安。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联军解散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初平二年，韩馥部将麴义反叛，韩馥讨伐不利，袁绍派使者与麴义结交，并领兵到延津，直至邺城。初平元年7月，在袁绍压力之下，韩馥把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对话内容id_str，以;分割。</t>
   </si>
   <si>
@@ -243,6 +219,29 @@
   </si>
   <si>
     <t>2012;2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年，韩馥部将麴义反叛，袁绍派使者与麴义结交，并领兵到延津，直至邺城。初平元年7月，韩馥把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年冬，阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉献帝初平元年（190年）2月,董卓焚洛阳，迁都长安。汉献帝初平二年(191年)2月,反董联军解散。4月,董卓入长安。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +600,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,10 +632,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -645,7 +644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -653,13 +652,13 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -668,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -682,13 +681,13 @@
         <v>1201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -697,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -711,13 +710,13 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -726,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -746,22 +745,22 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1">
         <v>5001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -772,10 +771,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -784,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -801,10 +800,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -813,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -833,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -842,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +859,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,23 +905,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -930,15 +929,15 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>storyId</t>
   </si>
@@ -242,6 +242,26 @@
   </si>
   <si>
     <t>汉献帝初平元年（190年）2月,董卓焚洛阳，迁都长安。汉献帝初平二年(191年)2月,反董联军解散。4月,董卓入长安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,25 +617,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="71.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="71.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,25 +647,28 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -654,26 +678,29 @@
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -683,26 +710,29 @@
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -715,23 +745,26 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -741,26 +774,29 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>5001</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -770,26 +806,29 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -799,26 +838,29 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -828,22 +870,25 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -856,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,49 +939,57 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>storyId</t>
   </si>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2002;2003;2004;2005;2006;2007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2008;2009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +258,46 @@
   </si>
   <si>
     <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002;2003;2004;2005;2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -629,14 +665,14 @@
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="71.75" style="3" customWidth="1"/>
+    <col min="6" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="71.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -656,19 +692,22 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -679,7 +718,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -687,20 +726,23 @@
       <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -711,7 +753,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -719,20 +761,23 @@
       <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -751,20 +796,23 @@
       <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -783,20 +831,23 @@
       <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1">
         <v>5001</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -815,20 +866,23 @@
       <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -842,25 +896,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -879,16 +936,19 @@
       <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -901,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -939,10 +999,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -963,34 +1023,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>58</v>
+      <c r="B11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>storyId</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,26 +665,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="71.75" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="71.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -686,28 +698,31 @@
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -723,26 +738,29 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>2007</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -758,26 +776,29 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -793,26 +814,29 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -825,29 +849,32 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>5001</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -860,29 +887,32 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -895,29 +925,32 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -930,25 +963,28 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -961,10 +997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1007,57 +1043,65 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,239 +77,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9012;9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界桥之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝歌之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易京之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9016;9017;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年3月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。6月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年，袁绍率兵攻公孙瓒，公孙瓒只守不攻。建安四年春，公孙续和黑山军首领张燕带领十万救兵分三路向易京救援。后袁绍设伏，公孙瓒中计，领兵出战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1002</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1003</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1005</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1007</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1011</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联军解散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006;2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9016;9018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008;2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010;2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9020;9021;9022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012;2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年，韩馥部将麴义反叛，袁绍派使者与麴义结交，并领兵到延津，直至邺城。初平元年7月，韩馥把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年冬，阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉献帝初平元年（190年）2月,董卓焚洛阳，迁都长安。汉献帝初平二年(191年)2月,反董联军解散。4月,董卓入长安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002;2003;2004;2005;2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>邺城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9012;9013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界桥之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝歌之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易京之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9016;9017;9024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平四年3月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。6月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安三年，袁绍率兵攻公孙瓒，公孙瓒只守不攻。建安四年春，公孙续和黑山军首领张燕带领十万救兵分三路向易京救援。后袁绍设伏，公孙瓒中计，领兵出战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励官职Id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励武将Id_str, 以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1002</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1003</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1005</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1007</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1011</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-  </si>
-  <si>
-    <t>讨伐董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联军解散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容id_str，以;分割。</t>
-  </si>
-  <si>
-    <t>1001;1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001;2002;2003;2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002;2005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006;2007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9016;9018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008;2009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010;2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9020;9021;9022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012;2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
-  </si>
-  <si>
-    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年，韩馥部将麴义反叛，袁绍派使者与麴义结交，并领兵到延津，直至邺城。初平元年7月，韩馥把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年冬，阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述（战斗介绍用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉献帝初平元年（190年）2月,董卓焚洛阳，迁都长安。汉献帝初平二年(191年)2月,反董联军解散。4月,董卓入长安。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjinjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线剧情动画文件，0标识无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taodonglianjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000;404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000;402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002;2003;2004;2005;2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleIdStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗ID字符串，0标识无战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleIdStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +668,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,10 +695,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -707,19 +707,19 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -730,22 +730,22 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>2007</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -768,10 +768,10 @@
         <v>1201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -806,7 +806,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -844,34 +844,34 @@
         <v>901</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>201</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1">
         <v>5001</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -882,34 +882,34 @@
         <v>902</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -920,22 +920,22 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -958,22 +958,22 @@
         <v>402</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>204</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1035,18 +1035,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1062,31 +1062,31 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
         <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1094,15 +1094,15 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig2.xlsx
+++ b/tbl打包工具/excel/storyConfig2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
   <si>
     <t>storyId</t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情类型，1事件叙述，2武将来投，3主线任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,6 +643,50 @@
   </si>
   <si>
     <t>主公，割据之势已成，请主公立刻开府理事（建造1级官府），保一方太平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移至城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封官拜将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,12 +784,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -791,7 +834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,7 +869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1129,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1146,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1167,7 +1210,7 @@
         <v>101</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1175,22 +1218,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>214</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1199,13 +1242,13 @@
         <v>2003</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="6">
         <v>2001</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1219,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1243,7 +1286,7 @@
         <v>102</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1251,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1266,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1281,7 +1324,7 @@
         <v>103</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1289,13 +1332,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>9007</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1304,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1319,7 +1362,7 @@
         <v>2002</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1327,13 +1370,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1342,7 +1385,7 @@
         <v>201</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1357,7 +1400,7 @@
         <v>2003</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1371,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -1395,7 +1438,7 @@
         <v>104</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1403,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>203</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1418,7 +1461,7 @@
         <v>202</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1433,7 +1476,7 @@
         <v>106</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1441,13 +1484,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>208</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1456,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1471,7 +1514,7 @@
         <v>2004</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1485,31 +1528,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="L12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1523,7 +1566,7 @@
         <v>213</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1532,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1541,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="6">
         <v>2005</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1555,22 +1598,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1585,7 +1628,7 @@
         <v>111</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1599,31 +1642,31 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1631,13 +1674,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>319</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1646,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1661,7 +1704,7 @@
         <v>2006</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1669,13 +1712,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6">
         <v>208</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1684,7 +1727,7 @@
         <v>203</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -1699,7 +1742,7 @@
         <v>2007</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1707,13 +1750,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>324</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1722,7 +1765,7 @@
         <v>204</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1737,7 +1780,7 @@
         <v>2008</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1745,13 +1788,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>208</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1760,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -1775,7 +1818,7 @@
         <v>2009</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1789,31 +1832,31 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1821,22 +1864,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5">
         <v>208</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -1851,7 +1894,7 @@
         <v>116</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1865,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -1874,7 +1917,7 @@
         <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -1889,7 +1932,7 @@
         <v>3012</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1903,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1912,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -1927,7 +1970,7 @@
         <v>3013</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1941,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
@@ -1965,7 +2008,7 @@
         <v>113</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1979,7 +2022,7 @@
         <v>315</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1988,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -1997,13 +2040,13 @@
         <v>5001</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="6">
         <v>3014</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2017,7 +2060,7 @@
         <v>314</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2026,7 +2069,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -2041,7 +2084,7 @@
         <v>3015</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2055,31 +2098,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2093,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -2117,7 +2160,7 @@
         <v>3016</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2131,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2140,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -2155,7 +2198,7 @@
         <v>3017</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2169,19 +2212,19 @@
         <v>317</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -2193,7 +2236,7 @@
         <v>3018</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2207,7 +2250,7 @@
         <v>9009</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2216,10 +2259,10 @@
         <v>105</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2231,7 +2274,7 @@
         <v>3019</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2245,7 +2288,7 @@
         <v>314</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2254,10 +2297,10 @@
         <v>106</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2269,7 +2312,7 @@
         <v>3020</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2283,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2307,7 +2350,7 @@
         <v>116</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -2321,31 +2364,31 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2359,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2383,7 +2426,7 @@
         <v>119</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2397,7 +2440,7 @@
         <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2406,10 +2449,10 @@
         <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2421,7 +2464,7 @@
         <v>3021</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2433,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2458,7 +2501,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2466,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -2530,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -2539,6 +2582,78 @@
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
